--- a/team_specific_matrix/UNCW_A.xlsx
+++ b/team_specific_matrix/UNCW_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1630901287553648</v>
+        <v>0.1661016949152542</v>
       </c>
       <c r="C2">
-        <v>0.6137339055793991</v>
+        <v>0.6067796610169491</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008583690987124463</v>
+        <v>0.01016949152542373</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1287553648068669</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08583690987124463</v>
+        <v>0.08135593220338982</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006535947712418301</v>
+        <v>0.015625</v>
       </c>
       <c r="C3">
-        <v>0.05228758169934641</v>
+        <v>0.046875</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0130718954248366</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7712418300653595</v>
+        <v>0.7604166666666666</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1568627450980392</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05263157894736842</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7105263157894737</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2368421052631579</v>
+        <v>0.2391304347826087</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06043956043956044</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02197802197802198</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04395604395604396</v>
+        <v>0.04090909090909091</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2912087912087912</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03846153846153846</v>
+        <v>0.04090909090909091</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1593406593406593</v>
+        <v>0.1727272727272727</v>
       </c>
       <c r="R6">
-        <v>0.07692307692307693</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="S6">
-        <v>0.3076923076923077</v>
+        <v>0.2909090909090909</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1133333333333333</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02</v>
+        <v>0.02339181286549707</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.08</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.16</v>
+        <v>0.1754385964912281</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01333333333333333</v>
+        <v>0.01169590643274854</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2133333333333333</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="R7">
-        <v>0.1133333333333333</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="S7">
-        <v>0.2866666666666667</v>
+        <v>0.2982456140350877</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1094674556213018</v>
+        <v>0.1188811188811189</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02071005917159763</v>
+        <v>0.01864801864801865</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05029585798816568</v>
+        <v>0.04662004662004662</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1242603550295858</v>
+        <v>0.1095571095571096</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01775147928994083</v>
+        <v>0.02331002331002331</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2041420118343195</v>
+        <v>0.2027972027972028</v>
       </c>
       <c r="R8">
-        <v>0.09171597633136094</v>
+        <v>0.1188811188811189</v>
       </c>
       <c r="S8">
-        <v>0.3816568047337278</v>
+        <v>0.3613053613053613</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09375</v>
+        <v>0.09326424870466321</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.08125</v>
+        <v>0.07772020725388601</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.14375</v>
+        <v>0.1450777202072539</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.01036269430051814</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.16875</v>
+        <v>0.1658031088082902</v>
       </c>
       <c r="R9">
-        <v>0.1125</v>
+        <v>0.1139896373056995</v>
       </c>
       <c r="S9">
-        <v>0.4</v>
+        <v>0.3937823834196891</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1075697211155379</v>
+        <v>0.1068580542264753</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02589641434262948</v>
+        <v>0.02551834130781499</v>
       </c>
       <c r="E10">
-        <v>0.00199203187250996</v>
+        <v>0.001594896331738437</v>
       </c>
       <c r="F10">
-        <v>0.0697211155378486</v>
+        <v>0.06937799043062201</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1254980079681275</v>
+        <v>0.1259968102073365</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009960159362549801</v>
+        <v>0.01196172248803828</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2211155378486056</v>
+        <v>0.2256778309409888</v>
       </c>
       <c r="R10">
-        <v>0.09262948207171315</v>
+        <v>0.09569377990430622</v>
       </c>
       <c r="S10">
-        <v>0.3456175298804781</v>
+        <v>0.3373205741626794</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1223628691983122</v>
+        <v>0.1209964412811388</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1139240506329114</v>
+        <v>0.1209964412811388</v>
       </c>
       <c r="K11">
-        <v>0.189873417721519</v>
+        <v>0.1886120996441281</v>
       </c>
       <c r="L11">
-        <v>0.5485232067510548</v>
+        <v>0.5444839857651246</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02531645569620253</v>
+        <v>0.02491103202846975</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7384615384615385</v>
+        <v>0.7320261437908496</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2230769230769231</v>
+        <v>0.2287581699346405</v>
       </c>
       <c r="K12">
-        <v>0.007692307692307693</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="L12">
-        <v>0.007692307692307693</v>
+        <v>0.006535947712418301</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02307692307692308</v>
+        <v>0.0261437908496732</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8181818181818182</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1515151515151515</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.0303030303030303</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04651162790697674</v>
+        <v>0.04054054054054054</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1976744186046512</v>
+        <v>0.2117117117117117</v>
       </c>
       <c r="I15">
-        <v>0.05232558139534884</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="J15">
-        <v>0.3197674418604651</v>
+        <v>0.3198198198198198</v>
       </c>
       <c r="K15">
-        <v>0.05232558139534884</v>
+        <v>0.04504504504504504</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01744186046511628</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04651162790697674</v>
+        <v>0.04504504504504504</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2674418604651163</v>
+        <v>0.2702702702702703</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01807228915662651</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1686746987951807</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I16">
-        <v>0.0783132530120482</v>
+        <v>0.07177033492822966</v>
       </c>
       <c r="J16">
-        <v>0.4036144578313253</v>
+        <v>0.430622009569378</v>
       </c>
       <c r="K16">
-        <v>0.1506024096385542</v>
+        <v>0.1339712918660287</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01807228915662651</v>
+        <v>0.01435406698564593</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03012048192771084</v>
+        <v>0.03349282296650718</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1325301204819277</v>
+        <v>0.1148325358851675</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.032171581769437</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1823056300268097</v>
+        <v>0.1876332622601279</v>
       </c>
       <c r="I17">
-        <v>0.08042895442359249</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="J17">
-        <v>0.3994638069705094</v>
+        <v>0.4051172707889126</v>
       </c>
       <c r="K17">
-        <v>0.08042895442359249</v>
+        <v>0.08528784648187633</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02949061662198391</v>
+        <v>0.0255863539445629</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05093833780160858</v>
+        <v>0.0511727078891258</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1447721179624665</v>
+        <v>0.1407249466950959</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01162790697674419</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1918604651162791</v>
+        <v>0.2</v>
       </c>
       <c r="I18">
-        <v>0.1220930232558139</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J18">
-        <v>0.4244186046511628</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="K18">
-        <v>0.08139534883720931</v>
+        <v>0.08</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01744186046511628</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08139534883720931</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06976744186046512</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01397849462365591</v>
+        <v>0.01771479185119575</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1881720430107527</v>
+        <v>0.1886625332152347</v>
       </c>
       <c r="I19">
-        <v>0.0935483870967742</v>
+        <v>0.09388839681133747</v>
       </c>
       <c r="J19">
-        <v>0.3612903225806451</v>
+        <v>0.3613817537643932</v>
       </c>
       <c r="K19">
-        <v>0.1172043010752688</v>
+        <v>0.112488928255093</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01827956989247312</v>
+        <v>0.01682905225863596</v>
       </c>
       <c r="N19">
-        <v>0.001075268817204301</v>
+        <v>0.0008857395925597874</v>
       </c>
       <c r="O19">
-        <v>0.09247311827956989</v>
+        <v>0.09477413640389726</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1139784946236559</v>
+        <v>0.1133746678476528</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UNCW_A.xlsx
+++ b/team_specific_matrix/UNCW_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1661016949152542</v>
+        <v>0.1623376623376623</v>
       </c>
       <c r="C2">
-        <v>0.6067796610169491</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01016949152542373</v>
+        <v>0.00974025974025974</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1355932203389831</v>
+        <v>0.1331168831168831</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08135593220338982</v>
+        <v>0.08116883116883117</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.015625</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="C3">
-        <v>0.046875</v>
+        <v>0.04455445544554455</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01041666666666667</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7604166666666666</v>
+        <v>0.7673267326732673</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1666666666666667</v>
+        <v>0.1633663366336634</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06521739130434782</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6956521739130435</v>
+        <v>0.6851851851851852</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2391304347826087</v>
+        <v>0.2592592592592592</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07272727272727272</v>
+        <v>0.06837606837606838</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01818181818181818</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04090909090909091</v>
+        <v>0.04273504273504274</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2909090909090909</v>
+        <v>0.2991452991452991</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04090909090909091</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1727272727272727</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R6">
-        <v>0.07272727272727272</v>
+        <v>0.06837606837606838</v>
       </c>
       <c r="S6">
-        <v>0.2909090909090909</v>
+        <v>0.2991452991452991</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1052631578947368</v>
+        <v>0.1027027027027027</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02339181286549707</v>
+        <v>0.02162162162162162</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07017543859649122</v>
+        <v>0.06486486486486487</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1754385964912281</v>
+        <v>0.1675675675675676</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01169590643274854</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2105263157894737</v>
+        <v>0.2054054054054054</v>
       </c>
       <c r="R7">
-        <v>0.1052631578947368</v>
+        <v>0.1027027027027027</v>
       </c>
       <c r="S7">
-        <v>0.2982456140350877</v>
+        <v>0.3243243243243243</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1188811188811189</v>
+        <v>0.1139240506329114</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01864801864801865</v>
+        <v>0.02109704641350211</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04662004662004662</v>
+        <v>0.05274261603375528</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1095571095571096</v>
+        <v>0.1033755274261603</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02331002331002331</v>
+        <v>0.02320675105485232</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2027972027972028</v>
+        <v>0.20042194092827</v>
       </c>
       <c r="R8">
-        <v>0.1188811188811189</v>
+        <v>0.1223628691983122</v>
       </c>
       <c r="S8">
-        <v>0.3613053613053613</v>
+        <v>0.3628691983122363</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09326424870466321</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.004761904761904762</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07772020725388601</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1450777202072539</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01036269430051814</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1658031088082902</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="R9">
-        <v>0.1139896373056995</v>
+        <v>0.1095238095238095</v>
       </c>
       <c r="S9">
-        <v>0.3937823834196891</v>
+        <v>0.3952380952380952</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1068580542264753</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02551834130781499</v>
+        <v>0.02781954887218045</v>
       </c>
       <c r="E10">
-        <v>0.001594896331738437</v>
+        <v>0.001503759398496241</v>
       </c>
       <c r="F10">
-        <v>0.06937799043062201</v>
+        <v>0.06691729323308271</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1259968102073365</v>
+        <v>0.1278195488721804</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01196172248803828</v>
+        <v>0.01278195488721805</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2256778309409888</v>
+        <v>0.2278195488721804</v>
       </c>
       <c r="R10">
-        <v>0.09569377990430622</v>
+        <v>0.09398496240601503</v>
       </c>
       <c r="S10">
-        <v>0.3373205741626794</v>
+        <v>0.3360902255639098</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1209964412811388</v>
+        <v>0.1262458471760797</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1209964412811388</v>
+        <v>0.1129568106312292</v>
       </c>
       <c r="K11">
-        <v>0.1886120996441281</v>
+        <v>0.1893687707641196</v>
       </c>
       <c r="L11">
-        <v>0.5444839857651246</v>
+        <v>0.5448504983388704</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02491103202846975</v>
+        <v>0.026578073089701</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7320261437908496</v>
+        <v>0.7423312883435583</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2287581699346405</v>
+        <v>0.2147239263803681</v>
       </c>
       <c r="K12">
-        <v>0.006535947712418301</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="L12">
-        <v>0.006535947712418301</v>
+        <v>0.006134969325153374</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0261437908496732</v>
+        <v>0.03067484662576687</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7368421052631579</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2105263157894737</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05263157894736842</v>
+        <v>0.04878048780487805</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04054054054054054</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2117117117117117</v>
+        <v>0.2136752136752137</v>
       </c>
       <c r="I15">
-        <v>0.05405405405405406</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="J15">
-        <v>0.3198198198198198</v>
+        <v>0.311965811965812</v>
       </c>
       <c r="K15">
-        <v>0.04504504504504504</v>
+        <v>0.04700854700854701</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01351351351351351</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04504504504504504</v>
+        <v>0.04700854700854701</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2702702702702703</v>
+        <v>0.2735042735042735</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01913875598086124</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1818181818181818</v>
+        <v>0.1741071428571428</v>
       </c>
       <c r="I16">
-        <v>0.07177033492822966</v>
+        <v>0.08035714285714286</v>
       </c>
       <c r="J16">
-        <v>0.430622009569378</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K16">
-        <v>0.1339712918660287</v>
+        <v>0.1339285714285714</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01435406698564593</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03349282296650718</v>
+        <v>0.03125</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1148325358851675</v>
+        <v>0.1160714285714286</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02985074626865672</v>
+        <v>0.03168316831683168</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1876332622601279</v>
+        <v>0.2</v>
       </c>
       <c r="I17">
-        <v>0.07462686567164178</v>
+        <v>0.07524752475247524</v>
       </c>
       <c r="J17">
-        <v>0.4051172707889126</v>
+        <v>0.4</v>
       </c>
       <c r="K17">
-        <v>0.08528784648187633</v>
+        <v>0.08316831683168317</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0255863539445629</v>
+        <v>0.02376237623762376</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0511727078891258</v>
+        <v>0.04752475247524753</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1407249466950959</v>
+        <v>0.1386138613861386</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01333333333333333</v>
+        <v>0.01255230125523013</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2</v>
+        <v>0.2092050209205021</v>
       </c>
       <c r="I18">
-        <v>0.1111111111111111</v>
+        <v>0.1171548117154812</v>
       </c>
       <c r="J18">
-        <v>0.4222222222222222</v>
+        <v>0.4100418410041841</v>
       </c>
       <c r="K18">
-        <v>0.08</v>
+        <v>0.07949790794979079</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02666666666666667</v>
+        <v>0.02510460251046025</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06666666666666667</v>
+        <v>0.06694560669456066</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08</v>
+        <v>0.07949790794979079</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01771479185119575</v>
+        <v>0.0180623973727422</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1886625332152347</v>
+        <v>0.19376026272578</v>
       </c>
       <c r="I19">
-        <v>0.09388839681133747</v>
+        <v>0.09359605911330049</v>
       </c>
       <c r="J19">
-        <v>0.3613817537643932</v>
+        <v>0.3604269293924466</v>
       </c>
       <c r="K19">
-        <v>0.112488928255093</v>
+        <v>0.1108374384236453</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01682905225863596</v>
+        <v>0.01642036124794746</v>
       </c>
       <c r="N19">
-        <v>0.0008857395925597874</v>
+        <v>0.0008210180623973727</v>
       </c>
       <c r="O19">
-        <v>0.09477413640389726</v>
+        <v>0.09277504105090312</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1133746678476528</v>
+        <v>0.1133004926108374</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UNCW_A.xlsx
+++ b/team_specific_matrix/UNCW_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1623376623376623</v>
+        <v>0.1671826625386997</v>
       </c>
       <c r="C2">
-        <v>0.6136363636363636</v>
+        <v>0.6068111455108359</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.00974025974025974</v>
+        <v>0.009287925696594427</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1331168831168831</v>
+        <v>0.1362229102167183</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08116883116883117</v>
+        <v>0.0804953560371517</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01485148514851485</v>
+        <v>0.01421800947867299</v>
       </c>
       <c r="C3">
-        <v>0.04455445544554455</v>
+        <v>0.04265402843601896</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.009900990099009901</v>
+        <v>0.009478672985781991</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7673267326732673</v>
+        <v>0.7725118483412322</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1633663366336634</v>
+        <v>0.1611374407582938</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6851851851851852</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2592592592592592</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06837606837606838</v>
+        <v>0.07024793388429752</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0170940170940171</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04273504273504274</v>
+        <v>0.04132231404958678</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2991452991452991</v>
+        <v>0.3099173553719008</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03846153846153846</v>
+        <v>0.0371900826446281</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1666666666666667</v>
+        <v>0.1652892561983471</v>
       </c>
       <c r="R6">
-        <v>0.06837606837606838</v>
+        <v>0.06611570247933884</v>
       </c>
       <c r="S6">
-        <v>0.2991452991452991</v>
+        <v>0.2933884297520661</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1027027027027027</v>
+        <v>0.1047120418848168</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02162162162162162</v>
+        <v>0.02617801047120419</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06486486486486487</v>
+        <v>0.06282722513089005</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1675675675675676</v>
+        <v>0.1727748691099476</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01081081081081081</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2054054054054054</v>
+        <v>0.2041884816753927</v>
       </c>
       <c r="R7">
-        <v>0.1027027027027027</v>
+        <v>0.1047120418848168</v>
       </c>
       <c r="S7">
-        <v>0.3243243243243243</v>
+        <v>0.3141361256544503</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1139240506329114</v>
+        <v>0.1140529531568228</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02109704641350211</v>
+        <v>0.02036659877800407</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.002036659877800407</v>
       </c>
       <c r="F8">
-        <v>0.05274261603375528</v>
+        <v>0.05295315682281059</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1033755274261603</v>
+        <v>0.1059063136456212</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02320675105485232</v>
+        <v>0.02240325865580448</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.20042194092827</v>
+        <v>0.2016293279022403</v>
       </c>
       <c r="R8">
-        <v>0.1223628691983122</v>
+        <v>0.120162932790224</v>
       </c>
       <c r="S8">
-        <v>0.3628691983122363</v>
+        <v>0.3604887983706721</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09523809523809523</v>
+        <v>0.09813084112149532</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.004761904761904762</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07142857142857142</v>
+        <v>0.07009345794392523</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1428571428571428</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.009523809523809525</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1714285714285714</v>
+        <v>0.1682242990654206</v>
       </c>
       <c r="R9">
-        <v>0.1095238095238095</v>
+        <v>0.1074766355140187</v>
       </c>
       <c r="S9">
-        <v>0.3952380952380952</v>
+        <v>0.3925233644859813</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1052631578947368</v>
+        <v>0.1057622173595915</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02781954887218045</v>
+        <v>0.02771699489423778</v>
       </c>
       <c r="E10">
-        <v>0.001503759398496241</v>
+        <v>0.001458789204959883</v>
       </c>
       <c r="F10">
-        <v>0.06691729323308271</v>
+        <v>0.06710430342815463</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1278195488721804</v>
+        <v>0.1269146608315098</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01278195488721805</v>
+        <v>0.01239970824215901</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2278195488721804</v>
+        <v>0.2261123267687819</v>
       </c>
       <c r="R10">
-        <v>0.09398496240601503</v>
+        <v>0.09336250911743253</v>
       </c>
       <c r="S10">
-        <v>0.3360902255639098</v>
+        <v>0.3391684901531729</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1262458471760797</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1129568106312292</v>
+        <v>0.1121794871794872</v>
       </c>
       <c r="K11">
-        <v>0.1893687707641196</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="L11">
-        <v>0.5448504983388704</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.026578073089701</v>
+        <v>0.02564102564102564</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7423312883435583</v>
+        <v>0.7440476190476191</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2147239263803681</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="K12">
-        <v>0.006134969325153374</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="L12">
-        <v>0.006134969325153374</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03067484662576687</v>
+        <v>0.02976190476190476</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03846153846153846</v>
+        <v>0.04471544715447155</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2136752136752137</v>
+        <v>0.2154471544715447</v>
       </c>
       <c r="I15">
-        <v>0.05128205128205128</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="J15">
-        <v>0.311965811965812</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="K15">
-        <v>0.04700854700854701</v>
+        <v>0.04471544715447155</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0170940170940171</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04700854700854701</v>
+        <v>0.04471544715447155</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2735042735042735</v>
+        <v>0.2682926829268293</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01785714285714286</v>
+        <v>0.02109704641350211</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1741071428571428</v>
+        <v>0.1687763713080169</v>
       </c>
       <c r="I16">
-        <v>0.08035714285714286</v>
+        <v>0.0759493670886076</v>
       </c>
       <c r="J16">
-        <v>0.4285714285714285</v>
+        <v>0.4261603375527426</v>
       </c>
       <c r="K16">
-        <v>0.1339285714285714</v>
+        <v>0.1308016877637131</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01785714285714286</v>
+        <v>0.01687763713080169</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03125</v>
+        <v>0.03375527426160337</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1160714285714286</v>
+        <v>0.1265822784810127</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03168316831683168</v>
+        <v>0.03088803088803089</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2</v>
+        <v>0.1988416988416988</v>
       </c>
       <c r="I17">
-        <v>0.07524752475247524</v>
+        <v>0.07528957528957529</v>
       </c>
       <c r="J17">
-        <v>0.4</v>
+        <v>0.3996138996138996</v>
       </c>
       <c r="K17">
-        <v>0.08316831683168317</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02376237623762376</v>
+        <v>0.02316602316602316</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.001930501930501931</v>
       </c>
       <c r="O17">
-        <v>0.04752475247524753</v>
+        <v>0.05019305019305019</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1386138613861386</v>
+        <v>0.138996138996139</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01255230125523013</v>
+        <v>0.01229508196721311</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2092050209205021</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="I18">
-        <v>0.1171548117154812</v>
+        <v>0.1229508196721311</v>
       </c>
       <c r="J18">
-        <v>0.4100418410041841</v>
+        <v>0.4057377049180328</v>
       </c>
       <c r="K18">
-        <v>0.07949790794979079</v>
+        <v>0.0778688524590164</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02510460251046025</v>
+        <v>0.02459016393442623</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06694560669456066</v>
+        <v>0.06557377049180328</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.07949790794979079</v>
+        <v>0.0778688524590164</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0180623973727422</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.19376026272578</v>
+        <v>0.1936758893280632</v>
       </c>
       <c r="I19">
-        <v>0.09359605911330049</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J19">
-        <v>0.3604269293924466</v>
+        <v>0.3541501976284585</v>
       </c>
       <c r="K19">
-        <v>0.1108374384236453</v>
+        <v>0.1122529644268775</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01642036124794746</v>
+        <v>0.01660079051383399</v>
       </c>
       <c r="N19">
-        <v>0.0008210180623973727</v>
+        <v>0.0007905138339920949</v>
       </c>
       <c r="O19">
-        <v>0.09277504105090312</v>
+        <v>0.09486166007905138</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1133004926108374</v>
+        <v>0.1185770750988142</v>
       </c>
     </row>
   </sheetData>
